--- a/Dynamic Scheduler/WorkoutHistory.xlsx
+++ b/Dynamic Scheduler/WorkoutHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bluepp-my.sharepoint.com/personal/jdr_bluepp_dk/Documents/Desktop/Dynamic Scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{5BD22592-A66E-4F81-BF42-BBB42FEF1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E045020-34FB-46C7-9269-63565D173EBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1F43D-9A97-4FF4-94B7-4529F39E36AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{B4F2CC61-A3FE-4740-9F3E-ADE8D4D9F462}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{B4F2CC61-A3FE-4740-9F3E-ADE8D4D9F462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -698,20 +698,23 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -725,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>

--- a/Dynamic Scheduler/WorkoutHistory.xlsx
+++ b/Dynamic Scheduler/WorkoutHistory.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1F43D-9A97-4FF4-94B7-4529F39E36AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00891AAF-0A10-4275-AFCC-F63CA5259A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{B4F2CC61-A3FE-4740-9F3E-ADE8D4D9F462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4F2CC61-A3FE-4740-9F3E-ADE8D4D9F462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,36 +39,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Chest_press</t>
-  </si>
-  <si>
     <t>Pulldown</t>
   </si>
   <si>
     <t>Curls</t>
   </si>
   <si>
-    <t>Tricep_ext</t>
-  </si>
-  <si>
-    <t>Leg_curls</t>
-  </si>
-  <si>
-    <t>Leg_extensions</t>
-  </si>
-  <si>
-    <t>Calf_raises</t>
-  </si>
-  <si>
-    <t>Lateral_raises</t>
-  </si>
-  <si>
-    <t>chest_supported_row</t>
-  </si>
-  <si>
-    <t>Chest_fly</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -87,6 +64,30 @@
   </si>
   <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Chest_Press</t>
+  </si>
+  <si>
+    <t>Tricep_Ext</t>
+  </si>
+  <si>
+    <t>Leg_Curls</t>
+  </si>
+  <si>
+    <t>Leg_Extensions</t>
+  </si>
+  <si>
+    <t>Calf_Raises</t>
+  </si>
+  <si>
+    <t>Lateral_Raises</t>
+  </si>
+  <si>
+    <t>Chest_Supported_Row</t>
+  </si>
+  <si>
+    <t>Chest_Fly</t>
   </si>
 </sst>
 </file>
@@ -473,46 +474,46 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="B7:I7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -547,7 +548,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -582,7 +583,7 @@
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -617,7 +618,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -649,7 +650,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -684,7 +685,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -719,7 +720,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
